--- a/docs/画面項目定義書/user_dashboard/user_dashboard.xlsx
+++ b/docs/画面項目定義書/user_dashboard/user_dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\user_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E429D2-BEF4-4BA6-AF11-974A6C31493D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331AD69D-04AC-4572-BC86-A21B9BF84ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11715" yWindow="3075" windowWidth="15465" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>日本工学院</t>
   </si>
@@ -84,27 +84,18 @@
     <t>仮想マシンメニューへ</t>
   </si>
   <si>
-    <t>仮想マシンダッシュボードへ遷移</t>
-  </si>
-  <si>
     <t>ネットワークメニューボタン</t>
   </si>
   <si>
     <t>ネットワークメニューへ</t>
   </si>
   <si>
-    <t>ネットワークダッシュボードへ遷移</t>
-  </si>
-  <si>
     <t>セキュリティグループボタン</t>
   </si>
   <si>
     <t>セキュリティグループへ</t>
   </si>
   <si>
-    <t>セキュリティグループダッシュボードへ遷移</t>
-  </si>
-  <si>
     <t>サマリー</t>
   </si>
   <si>
@@ -114,51 +105,33 @@
     <t>実行中VM数</t>
   </si>
   <si>
-    <t>実行中:n台</t>
-  </si>
-  <si>
     <t>実行中の仮想マシン台数を取得して表示</t>
   </si>
   <si>
     <t>停止中VM数</t>
   </si>
   <si>
-    <t>停止中:n台</t>
-  </si>
-  <si>
     <t>停止中の仮想マシン台数を取得して表示</t>
   </si>
   <si>
-    <t>CPU利用率:n%</t>
-  </si>
-  <si>
     <t>ネットワークの状態</t>
   </si>
   <si>
     <t>接続済みネットワーク数</t>
   </si>
   <si>
-    <t>接続済みネットワーク:n</t>
-  </si>
-  <si>
     <t>接続済みネットワーク数を取得して表示</t>
   </si>
   <si>
     <t>受信トラフィック</t>
   </si>
   <si>
-    <t>受信トラフィック:nGB</t>
-  </si>
-  <si>
     <t>受信トラフィックを取得して表示</t>
   </si>
   <si>
     <t>送信トラフィック</t>
   </si>
   <si>
-    <t>送信トラフィック:nGB</t>
-  </si>
-  <si>
     <t>送信トラフィックを取得して表示</t>
   </si>
   <si>
@@ -168,16 +141,10 @@
     <t>過去24H表示</t>
   </si>
   <si>
-    <t>過去24時間:N回</t>
-  </si>
-  <si>
     <t>過去24hのビュー数を取得して表示</t>
   </si>
   <si>
     <t>過去7d表示</t>
-  </si>
-  <si>
-    <t>過去7日間:N回</t>
   </si>
   <si>
     <t>過去7日間のビュー数を取得して表示</t>
@@ -198,13 +165,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>メモリ利用率:n%</t>
-    <rPh sb="3" eb="6">
-      <t>リヨウリツ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>CPU利用率を取得して表示</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -220,14 +180,44 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ストレージ利用率:n%</t>
-    <rPh sb="5" eb="8">
-      <t>リヨウリツ</t>
+    <t>ストレージ利用率を取得して表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>仮想マシンエンティティより取得</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ストレージ利用率を取得して表示</t>
+    <t>仮想マシンエンティティより取得</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ポートフォリオエンティティより取得</t>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ポートフォリオエンティティより取得</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>virtual_machine_dashboardへ遷移</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>security_group_dashboardへ遷移</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>virtual_network_dashboardへ遷移</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1095,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
@@ -1166,7 +1156,7 @@
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -1253,7 +1243,7 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5">
@@ -1261,18 +1251,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.5">
@@ -1280,18 +1270,18 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5">
@@ -1299,14 +1289,14 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
@@ -1316,14 +1306,14 @@
         <v>7</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34"/>
@@ -1333,18 +1323,18 @@
         <v>8</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="32" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5">
@@ -1352,18 +1342,18 @@
         <v>9</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5">
@@ -1371,18 +1361,18 @@
         <v>10</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="32" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="34" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.5">
@@ -1390,18 +1380,18 @@
         <v>11</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="32" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.5">
@@ -1409,18 +1399,18 @@
         <v>11</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="32" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="34" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="13.5">
@@ -1428,14 +1418,14 @@
         <v>12</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
@@ -1445,18 +1435,18 @@
         <v>13</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="32" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="34" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.5">
@@ -1464,18 +1454,18 @@
         <v>14</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="32" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="34" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13.5">
@@ -1483,18 +1473,18 @@
         <v>15</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="32" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13.5">
@@ -1502,14 +1492,14 @@
         <v>16</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="32" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
@@ -1519,18 +1509,18 @@
         <v>17</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="34" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.5">
@@ -1538,18 +1528,18 @@
         <v>18</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="34" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.5">

--- a/docs/画面項目定義書/user_dashboard/user_dashboard.xlsx
+++ b/docs/画面項目定義書/user_dashboard/user_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\user_dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\user_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331AD69D-04AC-4572-BC86-A21B9BF84ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8239C141-0F15-4250-9AE6-FF413474D765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11715" yWindow="3075" windowWidth="15465" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -150,10 +150,6 @@
     <t>過去7日間のビュー数を取得して表示</t>
   </si>
   <si>
-    <t>user_dashboard</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>CPU利用率</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -218,6 +214,10 @@
   </si>
   <si>
     <t>virtual_network_dashboardへ遷移</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>user_dashboard.html</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1086,20 +1086,20 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
-    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="13">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1119,7 +1119,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1128,7 +1128,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
+    <row r="4" spans="1:7" ht="13">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1137,7 +1137,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
+    <row r="5" spans="1:7" ht="13">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1150,20 +1150,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="11" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5">
+    <row r="7" spans="1:7" ht="13">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1172,7 +1172,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5">
+    <row r="8" spans="1:7" ht="13">
       <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5">
+    <row r="9" spans="1:7" ht="13">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5">
+    <row r="10" spans="1:7" ht="13">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5">
+    <row r="11" spans="1:7" ht="13">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1243,10 +1243,10 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13">
       <c r="A12" s="21">
         <v>4</v>
       </c>
@@ -1262,10 +1262,10 @@
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13">
       <c r="A13" s="28">
         <v>5</v>
       </c>
@@ -1281,10 +1281,10 @@
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13">
       <c r="A14" s="21">
         <v>6</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
     </row>
-    <row r="15" spans="1:7" ht="13.5">
+    <row r="15" spans="1:7" ht="13">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="F15" s="33"/>
       <c r="G15" s="34"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5">
+    <row r="16" spans="1:7" ht="13">
       <c r="A16" s="28">
         <v>8</v>
       </c>
@@ -1330,14 +1330,14 @@
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.5">
+    <row r="17" spans="1:7" ht="13">
       <c r="A17" s="21">
         <v>9</v>
       </c>
@@ -1349,71 +1349,71 @@
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.5">
+    <row r="18" spans="1:7" ht="13">
       <c r="A18" s="21">
         <v>10</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13">
       <c r="A19" s="28">
         <v>11</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13">
       <c r="A20" s="28">
         <v>11</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13">
       <c r="A21" s="21">
         <v>12</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:7" ht="13.5">
+    <row r="22" spans="1:7" ht="13">
       <c r="A22" s="21">
         <v>13</v>
       </c>
@@ -1442,14 +1442,14 @@
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.5">
+    <row r="23" spans="1:7" ht="13">
       <c r="A23" s="28">
         <v>14</v>
       </c>
@@ -1461,14 +1461,14 @@
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.5">
+    <row r="24" spans="1:7" ht="13">
       <c r="A24" s="21">
         <v>15</v>
       </c>
@@ -1480,14 +1480,14 @@
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.5">
+    <row r="25" spans="1:7" ht="24">
       <c r="A25" s="21">
         <v>16</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13.5">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="28">
         <v>17</v>
       </c>
@@ -1516,14 +1516,14 @@
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.5">
+    <row r="27" spans="1:7" ht="13">
       <c r="A27" s="21">
         <v>18</v>
       </c>
@@ -1535,14 +1535,14 @@
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.5">
+    <row r="28" spans="1:7" ht="13">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1551,7 +1551,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.5">
+    <row r="29" spans="1:7" ht="13">
       <c r="A29" s="28"/>
       <c r="B29" s="29"/>
       <c r="C29" s="30"/>
@@ -1560,7 +1560,7 @@
       <c r="F29" s="33"/>
       <c r="G29" s="34"/>
     </row>
-    <row r="30" spans="1:7" ht="13.5">
+    <row r="30" spans="1:7" ht="13">
       <c r="A30" s="28"/>
       <c r="B30" s="29"/>
       <c r="C30" s="30"/>
@@ -1569,7 +1569,7 @@
       <c r="F30" s="33"/>
       <c r="G30" s="34"/>
     </row>
-    <row r="31" spans="1:7" ht="13.5">
+    <row r="31" spans="1:7" ht="13">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
